--- a/Final Table of Enemy Trait Values.xlsx
+++ b/Final Table of Enemy Trait Values.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="29920" yWindow="0" windowWidth="8440" windowHeight="17980" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24880" windowHeight="17500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -947,8 +947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="J24" workbookViewId="0">
-      <selection activeCell="K51" sqref="K51"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1027,39 +1027,39 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <f>INT(A2/2)</f>
+        <f t="shared" ref="B2:B11" si="0">INT(A2/2)</f>
         <v>0</v>
       </c>
       <c r="C2" s="1">
-        <f>A2-1</f>
+        <f t="shared" ref="C2:C11" si="1">A2-1</f>
         <v>0</v>
       </c>
       <c r="D2" s="1">
-        <f>A2</f>
+        <f t="shared" ref="D2:D11" si="2">A2</f>
         <v>1</v>
       </c>
       <c r="E2" s="1">
-        <f>A2</f>
+        <f t="shared" ref="E2:E11" si="3">A2</f>
         <v>1</v>
       </c>
       <c r="F2" s="1">
-        <f>2 * A2 - 2</f>
+        <f t="shared" ref="F2:F11" si="4">2 * A2 - 2</f>
         <v>0</v>
       </c>
       <c r="G2" s="1">
-        <f>2 * A2</f>
+        <f t="shared" ref="G2:G11" si="5">2 * A2</f>
         <v>2</v>
       </c>
       <c r="H2" s="1">
-        <f>2 * A2</f>
+        <f t="shared" ref="H2:H11" si="6">2 * A2</f>
         <v>2</v>
       </c>
       <c r="I2" s="1">
-        <f>3 * A2 - 3</f>
+        <f t="shared" ref="I2:I11" si="7">3 * A2 - 3</f>
         <v>0</v>
       </c>
       <c r="J2" s="1">
-        <f>3 * A2</f>
+        <f t="shared" ref="J2:J11" si="8">3 * A2</f>
         <v>3</v>
       </c>
       <c r="K2" s="1">
@@ -1092,63 +1092,63 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <f>INT(A3/2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <f>A3-1</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <f>A3</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E3" s="1">
-        <f>A3</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="F3" s="1">
-        <f>2 * A3 - 2</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="G3" s="1">
-        <f>2 * A3</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="H3" s="1">
-        <f>2 * A3</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="I3" s="1">
-        <f>3 * A3 - 3</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="J3" s="1">
-        <f>3 * A3</f>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="K3" s="1">
-        <f t="shared" ref="K3:K11" si="0">3 * A3</f>
+        <f t="shared" ref="K3:K11" si="9">3 * A3</f>
         <v>6</v>
       </c>
       <c r="L3" s="1">
-        <f t="shared" ref="L3:L11" si="1" xml:space="preserve"> 4 * A3 - 4</f>
+        <f t="shared" ref="L3:L11" si="10" xml:space="preserve"> 4 * A3 - 4</f>
         <v>4</v>
       </c>
       <c r="M3" s="1">
-        <f t="shared" ref="M3:M11" si="2" xml:space="preserve"> 4 * A3</f>
+        <f t="shared" ref="M3:M11" si="11" xml:space="preserve"> 4 * A3</f>
         <v>8</v>
       </c>
       <c r="N3" s="1">
-        <f t="shared" ref="N3:N11" si="3">4 * A3</f>
+        <f t="shared" ref="N3:N11" si="12">4 * A3</f>
         <v>8</v>
       </c>
       <c r="O3" s="1">
-        <f t="shared" ref="O3:O11" si="4">5 * A3 - 5</f>
+        <f t="shared" ref="O3:O11" si="13">5 * A3 - 5</f>
         <v>5</v>
       </c>
       <c r="P3" s="1">
-        <f t="shared" ref="P3:P11" si="5">5 * A3</f>
+        <f t="shared" ref="P3:P11" si="14">5 * A3</f>
         <v>10</v>
       </c>
     </row>
@@ -1157,63 +1157,63 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <f>INT(A4/2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C4" s="1">
-        <f>A4-1</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="D4" s="1">
-        <f>A4</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E4" s="1">
-        <f>A4</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="F4" s="1">
-        <f>2 * A4 - 2</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="G4" s="1">
-        <f>2 * A4</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="H4" s="1">
-        <f>2 * A4</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I4" s="1">
-        <f>3 * A4 - 3</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="J4" s="1">
-        <f>3 * A4</f>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="L4" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="M4" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
       <c r="N4" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
       <c r="O4" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="P4" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>15</v>
       </c>
     </row>
@@ -1222,63 +1222,63 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <f>INT(A5/2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C5" s="1">
-        <f>A5-1</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="D5" s="1">
-        <f>A5</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="E5" s="1">
-        <f>A5</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="F5" s="1">
-        <f>2 * A5 - 2</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="G5" s="1">
-        <f>2 * A5</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="H5" s="1">
-        <f>2 * A5</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="I5" s="1">
-        <f>3 * A5 - 3</f>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="J5" s="1">
-        <f>3 * A5</f>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="L5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="M5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
       <c r="N5" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="O5" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>15</v>
       </c>
       <c r="P5" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>20</v>
       </c>
     </row>
@@ -1287,63 +1287,63 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <f>INT(A6/2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C6" s="1">
-        <f>A6-1</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="D6" s="1">
-        <f>A6</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="E6" s="1">
-        <f>A6</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F6" s="1">
-        <f>2 * A6 - 2</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="G6" s="1">
-        <f>2 * A6</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="H6" s="1">
-        <f>2 * A6</f>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="I6" s="1">
-        <f>3 * A6 - 3</f>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="J6" s="1">
-        <f>3 * A6</f>
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="L6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>16</v>
       </c>
       <c r="M6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="N6" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="O6" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="P6" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>25</v>
       </c>
     </row>
@@ -1352,63 +1352,63 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <f>INT(A7/2)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C7" s="1">
-        <f>A7-1</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="D7" s="1">
-        <f>A7</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="E7" s="1">
-        <f>A7</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="F7" s="1">
-        <f>2 * A7 - 2</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="G7" s="1">
-        <f>2 * A7</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="H7" s="1">
-        <f>2 * A7</f>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="I7" s="1">
-        <f>3 * A7 - 3</f>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="J7" s="1">
-        <f>3 * A7</f>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="K7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>18</v>
       </c>
       <c r="L7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>20</v>
       </c>
       <c r="M7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>24</v>
       </c>
       <c r="N7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>24</v>
       </c>
       <c r="O7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>25</v>
       </c>
       <c r="P7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>30</v>
       </c>
     </row>
@@ -1417,63 +1417,63 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <f>INT(A8/2)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C8" s="1">
-        <f>A8-1</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="D8" s="1">
-        <f>A8</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="E8" s="1">
-        <f>A8</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="F8" s="1">
-        <f>2 * A8 - 2</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="G8" s="1">
-        <f>2 * A8</f>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="H8" s="1">
-        <f>2 * A8</f>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="I8" s="1">
-        <f>3 * A8 - 3</f>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="J8" s="1">
-        <f>3 * A8</f>
+        <f t="shared" si="8"/>
         <v>21</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>21</v>
       </c>
       <c r="L8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>24</v>
       </c>
       <c r="M8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>28</v>
       </c>
       <c r="N8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>28</v>
       </c>
       <c r="O8" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>30</v>
       </c>
       <c r="P8" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>35</v>
       </c>
     </row>
@@ -1482,63 +1482,63 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <f>INT(A9/2)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C9" s="1">
-        <f>A9-1</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="D9" s="1">
-        <f>A9</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="E9" s="1">
-        <f>A9</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="F9" s="1">
-        <f>2 * A9 - 2</f>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="G9" s="1">
-        <f>2 * A9</f>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="H9" s="1">
-        <f>2 * A9</f>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="I9" s="1">
-        <f>3 * A9 - 3</f>
+        <f t="shared" si="7"/>
         <v>21</v>
       </c>
       <c r="J9" s="1">
-        <f>3 * A9</f>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>24</v>
       </c>
       <c r="L9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>28</v>
       </c>
       <c r="M9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>32</v>
       </c>
       <c r="N9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>32</v>
       </c>
       <c r="O9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>35</v>
       </c>
       <c r="P9" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>40</v>
       </c>
     </row>
@@ -1547,63 +1547,63 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <f>INT(A10/2)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C10" s="1">
-        <f>A10-1</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="D10" s="1">
-        <f>A10</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="E10" s="1">
-        <f>A10</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F10" s="1">
-        <f>2 * A10 - 2</f>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="G10" s="1">
-        <f>2 * A10</f>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="H10" s="1">
-        <f>2 * A10</f>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="I10" s="1">
-        <f>3 * A10 - 3</f>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
       <c r="J10" s="1">
-        <f>3 * A10</f>
+        <f t="shared" si="8"/>
         <v>27</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
       <c r="L10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>32</v>
       </c>
       <c r="M10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>36</v>
       </c>
       <c r="N10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>36</v>
       </c>
       <c r="O10" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>40</v>
       </c>
       <c r="P10" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>45</v>
       </c>
     </row>
@@ -1612,63 +1612,63 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <f>INT(A11/2)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C11" s="1">
-        <f>A11-1</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="D11" s="1">
-        <f>A11</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="E11" s="1">
-        <f>A11</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="F11" s="1">
-        <f>2 * A11 - 2</f>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="G11" s="1">
-        <f>2 * A11</f>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="H11" s="1">
-        <f>2 * A11</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="I11" s="1">
-        <f>3 * A11 - 3</f>
+        <f t="shared" si="7"/>
         <v>27</v>
       </c>
       <c r="J11" s="1">
-        <f>3 * A11</f>
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
       <c r="L11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>36</v>
       </c>
       <c r="M11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>40</v>
       </c>
       <c r="N11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>40</v>
       </c>
       <c r="O11" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>45</v>
       </c>
       <c r="P11" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>50</v>
       </c>
     </row>
@@ -1717,27 +1717,27 @@
         <v>1</v>
       </c>
       <c r="B14" s="1">
-        <f>INT(10 * LOG(A14 + 1) / LOG(10) + (0.0414 * A14) + B2 + C2 - A14)</f>
+        <f t="shared" ref="B14:B23" si="15">INT(10 * LOG(A14 + 1) / LOG(10) + (0.0414 * A14) + B2 + C2 - A14)</f>
         <v>2</v>
       </c>
       <c r="C14" s="1">
-        <f>INT(10 * LOG(A14 + 1) / LOG(10) + (0.0414 * A14) + B2 + D2 - A14)</f>
+        <f t="shared" ref="C14:C23" si="16">INT(10 * LOG(A14 + 1) / LOG(10) + (0.0414 * A14) + B2 + D2 - A14)</f>
         <v>3</v>
       </c>
       <c r="D14" s="1">
-        <f>INT(10 * LOG(A14 + 1) / LOG(10) + (0.0414 * A14) + E2 + F2 - A14)</f>
+        <f t="shared" ref="D14:D23" si="17">INT(10 * LOG(A14 + 1) / LOG(10) + (0.0414 * A14) + E2 + F2 - A14)</f>
         <v>3</v>
       </c>
       <c r="E14" s="1">
-        <f>INT(10 * LOG(A14 + 1) / LOG(10) + (0.0414 * A14) + E2 + G2 - A14)</f>
+        <f t="shared" ref="E14:E23" si="18">INT(10 * LOG(A14 + 1) / LOG(10) + (0.0414 * A14) + E2 + G2 - A14)</f>
         <v>5</v>
       </c>
       <c r="F14" s="1">
-        <f>INT(10 * LOG(A14 + 1) / LOG(10) + (0.0414 * A14) + H2 + I2 - A14)</f>
+        <f t="shared" ref="F14:F23" si="19">INT(10 * LOG(A14 + 1) / LOG(10) + (0.0414 * A14) + H2 + I2 - A14)</f>
         <v>4</v>
       </c>
       <c r="G14" s="1">
-        <f>INT(10 * LOG(A14 + 1) / LOG(10) + (0.0414 * A14) + H2 + J2 - A14)</f>
+        <f t="shared" ref="G14:G23" si="20">INT(10 * LOG(A14 + 1) / LOG(10) + (0.0414 * A14) + H2 + J2 - A14)</f>
         <v>7</v>
       </c>
       <c r="H14" s="1">
@@ -1762,43 +1762,43 @@
         <v>2</v>
       </c>
       <c r="B15" s="1">
-        <f>INT(10 * LOG(A15 + 1) / LOG(10) + (0.0414 * A15) + B3 + C3 - A15)</f>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="C15" s="1">
-        <f>INT(10 * LOG(A15 + 1) / LOG(10) + (0.0414 * A15) + B3 + D3 - A15)</f>
+        <f t="shared" si="16"/>
         <v>5</v>
       </c>
       <c r="D15" s="1">
-        <f>INT(10 * LOG(A15 + 1) / LOG(10) + (0.0414 * A15) + E3 + F3 - A15)</f>
+        <f t="shared" si="17"/>
         <v>6</v>
       </c>
       <c r="E15" s="1">
-        <f>INT(10 * LOG(A15 + 1) / LOG(10) + (0.0414 * A15) + E3 + G3 - A15)</f>
+        <f t="shared" si="18"/>
         <v>8</v>
       </c>
       <c r="F15" s="1">
-        <f>INT(10 * LOG(A15 + 1) / LOG(10) + (0.0414 * A15) + H3 + I3 - A15)</f>
+        <f t="shared" si="19"/>
         <v>9</v>
       </c>
       <c r="G15" s="1">
-        <f>INT(10 * LOG(A15 + 1) / LOG(10) + (0.0414 * A15) + H3 + J3 - A15)</f>
+        <f t="shared" si="20"/>
         <v>12</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" ref="H15:H23" si="6">INT(10 * LOG(A15 + 1) / LOG(10) + (0.0414 * A15) + K3 + L3 - A15)</f>
+        <f t="shared" ref="H15:H23" si="21">INT(10 * LOG(A15 + 1) / LOG(10) + (0.0414 * A15) + K3 + L3 - A15)</f>
         <v>12</v>
       </c>
       <c r="I15" s="1">
-        <f t="shared" ref="I15:I23" si="7">INT(10 * LOG(A15 + 1) / LOG(10) + (0.0414 * A15) + K3 + M3 - A15)</f>
+        <f t="shared" ref="I15:I23" si="22">INT(10 * LOG(A15 + 1) / LOG(10) + (0.0414 * A15) + K3 + M3 - A15)</f>
         <v>16</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" ref="J15:J23" si="8">INT(10 * LOG(A15 + 1) / LOG(10) + (0.0414 * A15) + N3 + O3 - A15)</f>
+        <f t="shared" ref="J15:J23" si="23">INT(10 * LOG(A15 + 1) / LOG(10) + (0.0414 * A15) + N3 + O3 - A15)</f>
         <v>15</v>
       </c>
       <c r="K15" s="1">
-        <f t="shared" ref="K15:K23" si="9">INT(10 * LOG(A15 + 1) / LOG(10) + (0.0414 * A15) + N3 + P3 - A15)</f>
+        <f t="shared" ref="K15:K23" si="24">INT(10 * LOG(A15 + 1) / LOG(10) + (0.0414 * A15) + N3 + P3 - A15)</f>
         <v>20</v>
       </c>
     </row>
@@ -1807,43 +1807,43 @@
         <v>3</v>
       </c>
       <c r="B16" s="1">
-        <f>INT(10 * LOG(A16 + 1) / LOG(10) + (0.0414 * A16) + B4 + C4 - A16)</f>
+        <f t="shared" si="15"/>
         <v>6</v>
       </c>
       <c r="C16" s="1">
-        <f>INT(10 * LOG(A16 + 1) / LOG(10) + (0.0414 * A16) + B4 + D4 - A16)</f>
+        <f t="shared" si="16"/>
         <v>7</v>
       </c>
       <c r="D16" s="1">
-        <f>INT(10 * LOG(A16 + 1) / LOG(10) + (0.0414 * A16) + E4 + F4 - A16)</f>
+        <f t="shared" si="17"/>
         <v>10</v>
       </c>
       <c r="E16" s="1">
-        <f>INT(10 * LOG(A16 + 1) / LOG(10) + (0.0414 * A16) + E4 + G4 - A16)</f>
+        <f t="shared" si="18"/>
         <v>12</v>
       </c>
       <c r="F16" s="1">
-        <f>INT(10 * LOG(A16 + 1) / LOG(10) + (0.0414 * A16) + H4 + I4 - A16)</f>
+        <f t="shared" si="19"/>
         <v>15</v>
       </c>
       <c r="G16" s="1">
-        <f>INT(10 * LOG(A16 + 1) / LOG(10) + (0.0414 * A16) + H4 + J4 - A16)</f>
+        <f t="shared" si="20"/>
         <v>18</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="21"/>
         <v>20</v>
       </c>
       <c r="I16" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>24</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>25</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>30</v>
       </c>
     </row>
@@ -1852,43 +1852,43 @@
         <v>4</v>
       </c>
       <c r="B17" s="1">
-        <f>INT(10 * LOG(A17 + 1) / LOG(10) + (0.0414 * A17) + B5 + C5 - A17)</f>
+        <f t="shared" si="15"/>
         <v>8</v>
       </c>
       <c r="C17" s="1">
-        <f>INT(10 * LOG(A17 + 1) / LOG(10) + (0.0414 * A17) + B5 + D5 - A17)</f>
+        <f t="shared" si="16"/>
         <v>9</v>
       </c>
       <c r="D17" s="1">
-        <f>INT(10 * LOG(A17 + 1) / LOG(10) + (0.0414 * A17) + E5 + F5 - A17)</f>
+        <f t="shared" si="17"/>
         <v>13</v>
       </c>
       <c r="E17" s="1">
-        <f>INT(10 * LOG(A17 + 1) / LOG(10) + (0.0414 * A17) + E5 + G5 - A17)</f>
+        <f t="shared" si="18"/>
         <v>15</v>
       </c>
       <c r="F17" s="1">
-        <f>INT(10 * LOG(A17 + 1) / LOG(10) + (0.0414 * A17) + H5 + I5 - A17)</f>
+        <f t="shared" si="19"/>
         <v>20</v>
       </c>
       <c r="G17" s="1">
-        <f>INT(10 * LOG(A17 + 1) / LOG(10) + (0.0414 * A17) + H5 + J5 - A17)</f>
+        <f t="shared" si="20"/>
         <v>23</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="21"/>
         <v>27</v>
       </c>
       <c r="I17" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>31</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>34</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>39</v>
       </c>
     </row>
@@ -1897,43 +1897,43 @@
         <v>5</v>
       </c>
       <c r="B18" s="1">
-        <f>INT(10 * LOG(A18 + 1) / LOG(10) + (0.0414 * A18) + B6 + C6 - A18)</f>
+        <f t="shared" si="15"/>
         <v>8</v>
       </c>
       <c r="C18" s="1">
-        <f>INT(10 * LOG(A18 + 1) / LOG(10) + (0.0414 * A18) + B6 + D6 - A18)</f>
+        <f t="shared" si="16"/>
         <v>9</v>
       </c>
       <c r="D18" s="1">
-        <f>INT(10 * LOG(A18 + 1) / LOG(10) + (0.0414 * A18) + E6 + F6 - A18)</f>
+        <f t="shared" si="17"/>
         <v>15</v>
       </c>
       <c r="E18" s="1">
-        <f>INT(10 * LOG(A18 + 1) / LOG(10) + (0.0414 * A18) + E6 + G6 - A18)</f>
+        <f t="shared" si="18"/>
         <v>17</v>
       </c>
       <c r="F18" s="1">
-        <f>INT(10 * LOG(A18 + 1) / LOG(10) + (0.0414 * A18) + H6 + I6 - A18)</f>
+        <f t="shared" si="19"/>
         <v>24</v>
       </c>
       <c r="G18" s="1">
-        <f>INT(10 * LOG(A18 + 1) / LOG(10) + (0.0414 * A18) + H6 + J6 - A18)</f>
+        <f t="shared" si="20"/>
         <v>27</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="21"/>
         <v>33</v>
       </c>
       <c r="I18" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>37</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>42</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>47</v>
       </c>
     </row>
@@ -1942,43 +1942,43 @@
         <v>6</v>
       </c>
       <c r="B19" s="1">
-        <f>INT(10 * LOG(A19 + 1) / LOG(10) + (0.0414 * A19) + B7 + C7 - A19)</f>
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
       <c r="C19" s="1">
-        <f>INT(10 * LOG(A19 + 1) / LOG(10) + (0.0414 * A19) + B7 + D7 - A19)</f>
+        <f t="shared" si="16"/>
         <v>11</v>
       </c>
       <c r="D19" s="1">
-        <f>INT(10 * LOG(A19 + 1) / LOG(10) + (0.0414 * A19) + E7 + F7 - A19)</f>
+        <f t="shared" si="17"/>
         <v>18</v>
       </c>
       <c r="E19" s="1">
-        <f>INT(10 * LOG(A19 + 1) / LOG(10) + (0.0414 * A19) + E7 + G7 - A19)</f>
+        <f t="shared" si="18"/>
         <v>20</v>
       </c>
       <c r="F19" s="1">
-        <f>INT(10 * LOG(A19 + 1) / LOG(10) + (0.0414 * A19) + H7 + I7 - A19)</f>
+        <f t="shared" si="19"/>
         <v>29</v>
       </c>
       <c r="G19" s="1">
-        <f>INT(10 * LOG(A19 + 1) / LOG(10) + (0.0414 * A19) + H7 + J7 - A19)</f>
+        <f t="shared" si="20"/>
         <v>32</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="21"/>
         <v>40</v>
       </c>
       <c r="I19" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>44</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>51</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>56</v>
       </c>
     </row>
@@ -1987,43 +1987,43 @@
         <v>7</v>
       </c>
       <c r="B20" s="1">
-        <f>INT(10 * LOG(A20 + 1) / LOG(10) + (0.0414 * A20) + B8 + C8 - A20)</f>
+        <f t="shared" si="15"/>
         <v>11</v>
       </c>
       <c r="C20" s="1">
-        <f>INT(10 * LOG(A20 + 1) / LOG(10) + (0.0414 * A20) + B8 + D8 - A20)</f>
+        <f t="shared" si="16"/>
         <v>12</v>
       </c>
       <c r="D20" s="1">
-        <f>INT(10 * LOG(A20 + 1) / LOG(10) + (0.0414 * A20) + E8 + F8 - A20)</f>
+        <f t="shared" si="17"/>
         <v>21</v>
       </c>
       <c r="E20" s="1">
-        <f>INT(10 * LOG(A20 + 1) / LOG(10) + (0.0414 * A20) + E8 + G8 - A20)</f>
+        <f t="shared" si="18"/>
         <v>23</v>
       </c>
       <c r="F20" s="1">
-        <f>INT(10 * LOG(A20 + 1) / LOG(10) + (0.0414 * A20) + H8 + I8 - A20)</f>
+        <f t="shared" si="19"/>
         <v>34</v>
       </c>
       <c r="G20" s="1">
-        <f>INT(10 * LOG(A20 + 1) / LOG(10) + (0.0414 * A20) + H8 + J8 - A20)</f>
+        <f t="shared" si="20"/>
         <v>37</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="21"/>
         <v>47</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>51</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>60</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>65</v>
       </c>
     </row>
@@ -2032,43 +2032,43 @@
         <v>8</v>
       </c>
       <c r="B21" s="1">
-        <f>INT(10 * LOG(A21 + 1) / LOG(10) + (0.0414 * A21) + B9 + C9 - A21)</f>
+        <f t="shared" si="15"/>
         <v>12</v>
       </c>
       <c r="C21" s="1">
-        <f>INT(10 * LOG(A21 + 1) / LOG(10) + (0.0414 * A21) + B9 + D9 - A21)</f>
+        <f t="shared" si="16"/>
         <v>13</v>
       </c>
       <c r="D21" s="1">
-        <f>INT(10 * LOG(A21 + 1) / LOG(10) + (0.0414 * A21) + E9 + F9 - A21)</f>
+        <f t="shared" si="17"/>
         <v>23</v>
       </c>
       <c r="E21" s="1">
-        <f>INT(10 * LOG(A21 + 1) / LOG(10) + (0.0414 * A21) + E9 + G9 - A21)</f>
+        <f t="shared" si="18"/>
         <v>25</v>
       </c>
       <c r="F21" s="1">
-        <f>INT(10 * LOG(A21 + 1) / LOG(10) + (0.0414 * A21) + H9 + I9 - A21)</f>
+        <f t="shared" si="19"/>
         <v>38</v>
       </c>
       <c r="G21" s="1">
-        <f>INT(10 * LOG(A21 + 1) / LOG(10) + (0.0414 * A21) + H9 + J9 - A21)</f>
+        <f t="shared" si="20"/>
         <v>41</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="21"/>
         <v>53</v>
       </c>
       <c r="I21" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>57</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>68</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>73</v>
       </c>
     </row>
@@ -2077,43 +2077,43 @@
         <v>9</v>
       </c>
       <c r="B22" s="1">
-        <f>INT(10 * LOG(A22 + 1) / LOG(10) + (0.0414 * A22) + B10 + C10 - A22)</f>
+        <f t="shared" si="15"/>
         <v>13</v>
       </c>
       <c r="C22" s="1">
-        <f>INT(10 * LOG(A22 + 1) / LOG(10) + (0.0414 * A22) + B10 + D10 - A22)</f>
+        <f t="shared" si="16"/>
         <v>14</v>
       </c>
       <c r="D22" s="1">
-        <f>INT(10 * LOG(A22 + 1) / LOG(10) + (0.0414 * A22) + E10 + F10 - A22)</f>
+        <f t="shared" si="17"/>
         <v>26</v>
       </c>
       <c r="E22" s="1">
-        <f>INT(10 * LOG(A22 + 1) / LOG(10) + (0.0414 * A22) + E10 + G10 - A22)</f>
+        <f t="shared" si="18"/>
         <v>28</v>
       </c>
       <c r="F22" s="1">
-        <f>INT(10 * LOG(A22 + 1) / LOG(10) + (0.0414 * A22) + H10 + I10 - A22)</f>
+        <f t="shared" si="19"/>
         <v>43</v>
       </c>
       <c r="G22" s="1">
-        <f>INT(10 * LOG(A22 + 1) / LOG(10) + (0.0414 * A22) + H10 + J10 - A22)</f>
+        <f t="shared" si="20"/>
         <v>46</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="21"/>
         <v>60</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>64</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>77</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>82</v>
       </c>
     </row>
@@ -2122,43 +2122,43 @@
         <v>10</v>
       </c>
       <c r="B23" s="1">
-        <f>INT(10 * LOG(A23 + 1) / LOG(10) + (0.0414 * A23) + B11 + C11 - A23)</f>
+        <f t="shared" si="15"/>
         <v>14</v>
       </c>
       <c r="C23" s="1">
-        <f>INT(10 * LOG(A23 + 1) / LOG(10) + (0.0414 * A23) + B11 + D11 - A23)</f>
+        <f t="shared" si="16"/>
         <v>15</v>
       </c>
       <c r="D23" s="1">
-        <f>INT(10 * LOG(A23 + 1) / LOG(10) + (0.0414 * A23) + E11 + F11 - A23)</f>
+        <f t="shared" si="17"/>
         <v>28</v>
       </c>
       <c r="E23" s="1">
-        <f>INT(10 * LOG(A23 + 1) / LOG(10) + (0.0414 * A23) + E11 + G11 - A23)</f>
+        <f t="shared" si="18"/>
         <v>30</v>
       </c>
       <c r="F23" s="1">
-        <f>INT(10 * LOG(A23 + 1) / LOG(10) + (0.0414 * A23) + H11 + I11 - A23)</f>
+        <f t="shared" si="19"/>
         <v>47</v>
       </c>
       <c r="G23" s="1">
-        <f>INT(10 * LOG(A23 + 1) / LOG(10) + (0.0414 * A23) + H11 + J11 - A23)</f>
+        <f t="shared" si="20"/>
         <v>50</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="21"/>
         <v>66</v>
       </c>
       <c r="I23" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>70</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>85</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>90</v>
       </c>
     </row>
@@ -2207,27 +2207,27 @@
         <v>1</v>
       </c>
       <c r="B26" s="1">
-        <f>B2 + C2 + A26</f>
+        <f t="shared" ref="B26:B35" si="25">B2 + C2 + A26</f>
         <v>1</v>
       </c>
       <c r="C26" s="1">
-        <f>B2 + D2 + A26</f>
+        <f t="shared" ref="C26:C35" si="26">B2 + D2 + A26</f>
         <v>2</v>
       </c>
       <c r="D26" s="1">
-        <f>E2 + F2 + A26</f>
+        <f t="shared" ref="D26:D35" si="27">E2 + F2 + A26</f>
         <v>2</v>
       </c>
       <c r="E26" s="1">
-        <f>E2 + G2 + A26</f>
+        <f t="shared" ref="E26:E35" si="28">E2 + G2 + A26</f>
         <v>4</v>
       </c>
       <c r="F26" s="1">
-        <f>H2 + I2 + A26</f>
+        <f t="shared" ref="F26:F35" si="29">H2 + I2 + A26</f>
         <v>3</v>
       </c>
       <c r="G26" s="1">
-        <f>H2 + J2 + A26</f>
+        <f t="shared" ref="G26:G35" si="30">H2 + J2 + A26</f>
         <v>6</v>
       </c>
       <c r="H26" s="1">
@@ -2252,43 +2252,43 @@
         <v>2</v>
       </c>
       <c r="B27" s="1">
-        <f>B3 + C3 + A27</f>
+        <f t="shared" si="25"/>
         <v>4</v>
       </c>
       <c r="C27" s="1">
-        <f>B3 + D3 + A27</f>
+        <f t="shared" si="26"/>
         <v>5</v>
       </c>
       <c r="D27" s="1">
-        <f>E3 + F3 + A27</f>
+        <f t="shared" si="27"/>
         <v>6</v>
       </c>
       <c r="E27" s="1">
-        <f>E3 + G3 + A27</f>
+        <f t="shared" si="28"/>
         <v>8</v>
       </c>
       <c r="F27" s="1">
-        <f>H3 + I3 + A27</f>
+        <f t="shared" si="29"/>
         <v>9</v>
       </c>
       <c r="G27" s="1">
-        <f>H3 + J3 + A27</f>
+        <f t="shared" si="30"/>
         <v>12</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" ref="H27:H35" si="10">K3 + L3 + A27</f>
+        <f t="shared" ref="H27:H35" si="31">K3 + L3 + A27</f>
         <v>12</v>
       </c>
       <c r="I27" s="1">
-        <f t="shared" ref="I27:I35" si="11">K3+M3 + A27</f>
+        <f t="shared" ref="I27:I35" si="32">K3+M3 + A27</f>
         <v>16</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" ref="J27:J35" si="12">N3+O3 + A27</f>
+        <f t="shared" ref="J27:J35" si="33">N3+O3 + A27</f>
         <v>15</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" ref="K27:K35" si="13">N3 + P3 + A27</f>
+        <f t="shared" ref="K27:K35" si="34">N3 + P3 + A27</f>
         <v>20</v>
       </c>
     </row>
@@ -2297,43 +2297,43 @@
         <v>3</v>
       </c>
       <c r="B28" s="1">
-        <f>B4 + C4 + A28</f>
+        <f t="shared" si="25"/>
         <v>6</v>
       </c>
       <c r="C28" s="1">
-        <f>B4 + D4 + A28</f>
+        <f t="shared" si="26"/>
         <v>7</v>
       </c>
       <c r="D28" s="1">
-        <f>E4 + F4 + A28</f>
+        <f t="shared" si="27"/>
         <v>10</v>
       </c>
       <c r="E28" s="1">
-        <f>E4 + G4 + A28</f>
+        <f t="shared" si="28"/>
         <v>12</v>
       </c>
       <c r="F28" s="1">
-        <f>H4 + I4 + A28</f>
+        <f t="shared" si="29"/>
         <v>15</v>
       </c>
       <c r="G28" s="1">
-        <f>H4 + J4 + A28</f>
+        <f t="shared" si="30"/>
         <v>18</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="31"/>
         <v>20</v>
       </c>
       <c r="I28" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="32"/>
         <v>24</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="33"/>
         <v>25</v>
       </c>
       <c r="K28" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="34"/>
         <v>30</v>
       </c>
     </row>
@@ -2342,43 +2342,43 @@
         <v>4</v>
       </c>
       <c r="B29" s="1">
-        <f>B5 + C5 + A29</f>
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
       <c r="C29" s="1">
-        <f>B5 + D5 + A29</f>
+        <f t="shared" si="26"/>
         <v>10</v>
       </c>
       <c r="D29" s="1">
-        <f>E5 + F5 + A29</f>
+        <f t="shared" si="27"/>
         <v>14</v>
       </c>
       <c r="E29" s="1">
-        <f>E5 + G5 + A29</f>
+        <f t="shared" si="28"/>
         <v>16</v>
       </c>
       <c r="F29" s="1">
-        <f>H5 + I5 + A29</f>
+        <f t="shared" si="29"/>
         <v>21</v>
       </c>
       <c r="G29" s="1">
-        <f>H5 + J5 + A29</f>
+        <f t="shared" si="30"/>
         <v>24</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="31"/>
         <v>28</v>
       </c>
       <c r="I29" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="32"/>
         <v>32</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="33"/>
         <v>35</v>
       </c>
       <c r="K29" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="34"/>
         <v>40</v>
       </c>
     </row>
@@ -2387,43 +2387,43 @@
         <v>5</v>
       </c>
       <c r="B30" s="1">
-        <f>B6 + C6 + A30</f>
+        <f t="shared" si="25"/>
         <v>11</v>
       </c>
       <c r="C30" s="1">
-        <f>B6 + D6 + A30</f>
+        <f t="shared" si="26"/>
         <v>12</v>
       </c>
       <c r="D30" s="1">
-        <f>E6 + F6 + A30</f>
+        <f t="shared" si="27"/>
         <v>18</v>
       </c>
       <c r="E30" s="1">
-        <f>E6 + G6 + A30</f>
+        <f t="shared" si="28"/>
         <v>20</v>
       </c>
       <c r="F30" s="1">
-        <f>H6 + I6 + A30</f>
+        <f t="shared" si="29"/>
         <v>27</v>
       </c>
       <c r="G30" s="1">
-        <f>H6 + J6 + A30</f>
+        <f t="shared" si="30"/>
         <v>30</v>
       </c>
       <c r="H30" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="31"/>
         <v>36</v>
       </c>
       <c r="I30" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="32"/>
         <v>40</v>
       </c>
       <c r="J30" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="33"/>
         <v>45</v>
       </c>
       <c r="K30" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="34"/>
         <v>50</v>
       </c>
     </row>
@@ -2432,43 +2432,43 @@
         <v>6</v>
       </c>
       <c r="B31" s="1">
-        <f>B7 + C7 + A31</f>
+        <f t="shared" si="25"/>
         <v>14</v>
       </c>
       <c r="C31" s="1">
-        <f>B7 + D7 + A31</f>
+        <f t="shared" si="26"/>
         <v>15</v>
       </c>
       <c r="D31" s="1">
-        <f>E7 + F7 + A31</f>
+        <f t="shared" si="27"/>
         <v>22</v>
       </c>
       <c r="E31" s="1">
-        <f>E7 + G7 + A31</f>
+        <f t="shared" si="28"/>
         <v>24</v>
       </c>
       <c r="F31" s="1">
-        <f>H7 + I7 + A31</f>
+        <f t="shared" si="29"/>
         <v>33</v>
       </c>
       <c r="G31" s="1">
-        <f>H7 + J7 + A31</f>
+        <f t="shared" si="30"/>
         <v>36</v>
       </c>
       <c r="H31" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="31"/>
         <v>44</v>
       </c>
       <c r="I31" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="32"/>
         <v>48</v>
       </c>
       <c r="J31" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="33"/>
         <v>55</v>
       </c>
       <c r="K31" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="34"/>
         <v>60</v>
       </c>
     </row>
@@ -2477,43 +2477,43 @@
         <v>7</v>
       </c>
       <c r="B32" s="1">
-        <f>B8 + C8 + A32</f>
+        <f t="shared" si="25"/>
         <v>16</v>
       </c>
       <c r="C32" s="1">
-        <f>B8 + D8 + A32</f>
+        <f t="shared" si="26"/>
         <v>17</v>
       </c>
       <c r="D32" s="1">
-        <f>E8 + F8 + A32</f>
+        <f t="shared" si="27"/>
         <v>26</v>
       </c>
       <c r="E32" s="1">
-        <f>E8 + G8 + A32</f>
+        <f t="shared" si="28"/>
         <v>28</v>
       </c>
       <c r="F32" s="1">
-        <f>H8 + I8 + A32</f>
+        <f t="shared" si="29"/>
         <v>39</v>
       </c>
       <c r="G32" s="1">
-        <f>H8 + J8 + A32</f>
+        <f t="shared" si="30"/>
         <v>42</v>
       </c>
       <c r="H32" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="31"/>
         <v>52</v>
       </c>
       <c r="I32" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="32"/>
         <v>56</v>
       </c>
       <c r="J32" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="33"/>
         <v>65</v>
       </c>
       <c r="K32" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="34"/>
         <v>70</v>
       </c>
     </row>
@@ -2522,43 +2522,43 @@
         <v>8</v>
       </c>
       <c r="B33" s="1">
-        <f>B9 + C9 + A33</f>
+        <f t="shared" si="25"/>
         <v>19</v>
       </c>
       <c r="C33" s="1">
-        <f>B9 + D9 + A33</f>
+        <f t="shared" si="26"/>
         <v>20</v>
       </c>
       <c r="D33" s="1">
-        <f>E9 + F9 + A33</f>
+        <f t="shared" si="27"/>
         <v>30</v>
       </c>
       <c r="E33" s="1">
-        <f>E9 + G9 + A33</f>
+        <f t="shared" si="28"/>
         <v>32</v>
       </c>
       <c r="F33" s="1">
-        <f>H9 + I9 + A33</f>
+        <f t="shared" si="29"/>
         <v>45</v>
       </c>
       <c r="G33" s="1">
-        <f>H9 + J9 + A33</f>
+        <f t="shared" si="30"/>
         <v>48</v>
       </c>
       <c r="H33" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="31"/>
         <v>60</v>
       </c>
       <c r="I33" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="32"/>
         <v>64</v>
       </c>
       <c r="J33" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="33"/>
         <v>75</v>
       </c>
       <c r="K33" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="34"/>
         <v>80</v>
       </c>
     </row>
@@ -2567,43 +2567,43 @@
         <v>9</v>
       </c>
       <c r="B34" s="1">
-        <f>B10 + C10 + A34</f>
+        <f t="shared" si="25"/>
         <v>21</v>
       </c>
       <c r="C34" s="1">
-        <f>B10 + D10 + A34</f>
+        <f t="shared" si="26"/>
         <v>22</v>
       </c>
       <c r="D34" s="1">
-        <f>E10 + F10 + A34</f>
+        <f t="shared" si="27"/>
         <v>34</v>
       </c>
       <c r="E34" s="1">
-        <f>E10 + G10 + A34</f>
+        <f t="shared" si="28"/>
         <v>36</v>
       </c>
       <c r="F34" s="1">
-        <f>H10 + I10 + A34</f>
+        <f t="shared" si="29"/>
         <v>51</v>
       </c>
       <c r="G34" s="1">
-        <f>H10 + J10 + A34</f>
+        <f t="shared" si="30"/>
         <v>54</v>
       </c>
       <c r="H34" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="31"/>
         <v>68</v>
       </c>
       <c r="I34" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="32"/>
         <v>72</v>
       </c>
       <c r="J34" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="33"/>
         <v>85</v>
       </c>
       <c r="K34" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="34"/>
         <v>90</v>
       </c>
     </row>
@@ -2612,43 +2612,43 @@
         <v>10</v>
       </c>
       <c r="B35" s="1">
-        <f>B11 + C11 + A35</f>
+        <f t="shared" si="25"/>
         <v>24</v>
       </c>
       <c r="C35" s="1">
-        <f>B11 + D11 + A35</f>
+        <f t="shared" si="26"/>
         <v>25</v>
       </c>
       <c r="D35" s="1">
-        <f>E11 + F11 + A35</f>
+        <f t="shared" si="27"/>
         <v>38</v>
       </c>
       <c r="E35" s="1">
-        <f>E11 + G11 + A35</f>
+        <f t="shared" si="28"/>
         <v>40</v>
       </c>
       <c r="F35" s="1">
-        <f>H11 + I11 + A35</f>
+        <f t="shared" si="29"/>
         <v>57</v>
       </c>
       <c r="G35" s="1">
-        <f>H11 + J11 + A35</f>
+        <f t="shared" si="30"/>
         <v>60</v>
       </c>
       <c r="H35" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="31"/>
         <v>76</v>
       </c>
       <c r="I35" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="32"/>
         <v>80</v>
       </c>
       <c r="J35" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="33"/>
         <v>95</v>
       </c>
       <c r="K35" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="34"/>
         <v>100</v>
       </c>
     </row>
@@ -2697,27 +2697,27 @@
         <v>1</v>
       </c>
       <c r="B38" s="1">
-        <f>INT((A38 * A38/4) + B2 + C2)</f>
+        <f t="shared" ref="B38:B47" si="35">INT((A38 * A38/4) + B2 + C2)</f>
         <v>0</v>
       </c>
       <c r="C38" s="1">
-        <f>INT((A38 * A38)/4 + B2 + D2)</f>
+        <f t="shared" ref="C38:C47" si="36">INT((A38 * A38)/4 + B2 + D2)</f>
         <v>1</v>
       </c>
       <c r="D38" s="1">
-        <f>INT((A38 * A38/4) + E2 + F2)</f>
+        <f t="shared" ref="D38:D47" si="37">INT((A38 * A38/4) + E2 + F2)</f>
         <v>1</v>
       </c>
       <c r="E38" s="1">
-        <f>INT((A38 * A38/4) + E2 + G2)</f>
+        <f t="shared" ref="E38:E47" si="38">INT((A38 * A38/4) + E2 + G2)</f>
         <v>3</v>
       </c>
       <c r="F38" s="1">
-        <f>INT((A38 * A38/4) + H2 + I2)</f>
+        <f t="shared" ref="F38:F47" si="39">INT((A38 * A38/4) + H2 + I2)</f>
         <v>2</v>
       </c>
       <c r="G38" s="1">
-        <f>INT((A38 * A38/4) + H2 + J2)</f>
+        <f t="shared" ref="G38:G47" si="40">INT((A38 * A38/4) + H2 + J2)</f>
         <v>5</v>
       </c>
       <c r="H38" s="1">
@@ -2742,43 +2742,43 @@
         <v>2</v>
       </c>
       <c r="B39" s="1">
-        <f>INT((A39 * A39/4) + B3 + C3)</f>
+        <f t="shared" si="35"/>
         <v>3</v>
       </c>
       <c r="C39" s="1">
-        <f>INT((A39 * A39)/4 + B3 + D3)</f>
+        <f t="shared" si="36"/>
         <v>4</v>
       </c>
       <c r="D39" s="1">
-        <f>INT((A39 * A39/4) + E3 + F3)</f>
+        <f t="shared" si="37"/>
         <v>5</v>
       </c>
       <c r="E39" s="1">
-        <f>INT((A39 * A39/4) + E3 + G3)</f>
+        <f t="shared" si="38"/>
         <v>7</v>
       </c>
       <c r="F39" s="1">
-        <f>INT((A39 * A39/4) + H3 + I3)</f>
+        <f t="shared" si="39"/>
         <v>8</v>
       </c>
       <c r="G39" s="1">
-        <f>INT((A39 * A39/4) + H3 + J3)</f>
+        <f t="shared" si="40"/>
         <v>11</v>
       </c>
       <c r="H39" s="1">
-        <f t="shared" ref="H39:H47" si="14">INT((A39 * A39/4) + K3 + L3)</f>
+        <f t="shared" ref="H39:H47" si="41">INT((A39 * A39/4) + K3 + L3)</f>
         <v>11</v>
       </c>
       <c r="I39" s="1">
-        <f t="shared" ref="I39:I47" si="15">INT((A39 * A39/4) + K3 + M3)</f>
+        <f t="shared" ref="I39:I47" si="42">INT((A39 * A39/4) + K3 + M3)</f>
         <v>15</v>
       </c>
       <c r="J39" s="1">
-        <f t="shared" ref="J39:J47" si="16">INT((A39 * A39/4) + N3 + O3)</f>
+        <f t="shared" ref="J39:J47" si="43">INT((A39 * A39/4) + N3 + O3)</f>
         <v>14</v>
       </c>
       <c r="K39" s="1">
-        <f t="shared" ref="K39:K47" si="17">INT((A39 * A39/4) + N3 + P3)</f>
+        <f t="shared" ref="K39:K47" si="44">INT((A39 * A39/4) + N3 + P3)</f>
         <v>19</v>
       </c>
     </row>
@@ -2787,43 +2787,43 @@
         <v>3</v>
       </c>
       <c r="B40" s="1">
-        <f>INT((A40 * A40/4) + B4 + C4)</f>
+        <f t="shared" si="35"/>
         <v>5</v>
       </c>
       <c r="C40" s="1">
-        <f>INT((A40 * A40)/4 + B4 + D4)</f>
+        <f t="shared" si="36"/>
         <v>6</v>
       </c>
       <c r="D40" s="1">
-        <f>INT((A40 * A40/4) + E4 + F4)</f>
+        <f t="shared" si="37"/>
         <v>9</v>
       </c>
       <c r="E40" s="1">
-        <f>INT((A40 * A40/4) + E4 + G4)</f>
+        <f t="shared" si="38"/>
         <v>11</v>
       </c>
       <c r="F40" s="1">
-        <f>INT((A40 * A40/4) + H4 + I4)</f>
+        <f t="shared" si="39"/>
         <v>14</v>
       </c>
       <c r="G40" s="1">
-        <f>INT((A40 * A40/4) + H4 + J4)</f>
+        <f t="shared" si="40"/>
         <v>17</v>
       </c>
       <c r="H40" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="41"/>
         <v>19</v>
       </c>
       <c r="I40" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="42"/>
         <v>23</v>
       </c>
       <c r="J40" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="43"/>
         <v>24</v>
       </c>
       <c r="K40" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="44"/>
         <v>29</v>
       </c>
     </row>
@@ -2832,43 +2832,43 @@
         <v>4</v>
       </c>
       <c r="B41" s="1">
-        <f>INT((A41 * A41/4) + B5 + C5)</f>
+        <f t="shared" si="35"/>
         <v>9</v>
       </c>
       <c r="C41" s="1">
-        <f>INT((A41 * A41)/4 + B5 + D5)</f>
+        <f t="shared" si="36"/>
         <v>10</v>
       </c>
       <c r="D41" s="1">
-        <f>INT((A41 * A41/4) + E5 + F5)</f>
+        <f t="shared" si="37"/>
         <v>14</v>
       </c>
       <c r="E41" s="1">
-        <f>INT((A41 * A41/4) + E5 + G5)</f>
+        <f t="shared" si="38"/>
         <v>16</v>
       </c>
       <c r="F41" s="1">
-        <f>INT((A41 * A41/4) + H5 + I5)</f>
+        <f t="shared" si="39"/>
         <v>21</v>
       </c>
       <c r="G41" s="1">
-        <f>INT((A41 * A41/4) + H5 + J5)</f>
+        <f t="shared" si="40"/>
         <v>24</v>
       </c>
       <c r="H41" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="41"/>
         <v>28</v>
       </c>
       <c r="I41" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="42"/>
         <v>32</v>
       </c>
       <c r="J41" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="43"/>
         <v>35</v>
       </c>
       <c r="K41" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="44"/>
         <v>40</v>
       </c>
     </row>
@@ -2877,43 +2877,43 @@
         <v>5</v>
       </c>
       <c r="B42" s="1">
-        <f>INT((A42 * A42/4) + B6 + C6)</f>
+        <f t="shared" si="35"/>
         <v>12</v>
       </c>
       <c r="C42" s="1">
-        <f>INT((A42 * A42)/4 + B6 + D6)</f>
+        <f t="shared" si="36"/>
         <v>13</v>
       </c>
       <c r="D42" s="1">
-        <f>INT((A42 * A42/4) + E6 + F6)</f>
+        <f t="shared" si="37"/>
         <v>19</v>
       </c>
       <c r="E42" s="1">
-        <f>INT((A42 * A42/4) + E6 + G6)</f>
+        <f t="shared" si="38"/>
         <v>21</v>
       </c>
       <c r="F42" s="1">
-        <f>INT((A42 * A42/4) + H6 + I6)</f>
+        <f t="shared" si="39"/>
         <v>28</v>
       </c>
       <c r="G42" s="1">
-        <f>INT((A42 * A42/4) + H6 + J6)</f>
+        <f t="shared" si="40"/>
         <v>31</v>
       </c>
       <c r="H42" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="41"/>
         <v>37</v>
       </c>
       <c r="I42" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="42"/>
         <v>41</v>
       </c>
       <c r="J42" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="43"/>
         <v>46</v>
       </c>
       <c r="K42" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="44"/>
         <v>51</v>
       </c>
     </row>
@@ -2922,43 +2922,43 @@
         <v>6</v>
       </c>
       <c r="B43" s="1">
-        <f>INT((A43 * A43/4) + B7 + C7)</f>
+        <f t="shared" si="35"/>
         <v>17</v>
       </c>
       <c r="C43" s="1">
-        <f>INT((A43 * A43)/4 + B7 + D7)</f>
+        <f t="shared" si="36"/>
         <v>18</v>
       </c>
       <c r="D43" s="1">
-        <f>INT((A43 * A43/4) + E7 + F7)</f>
+        <f t="shared" si="37"/>
         <v>25</v>
       </c>
       <c r="E43" s="1">
-        <f>INT((A43 * A43/4) + E7 + G7)</f>
+        <f t="shared" si="38"/>
         <v>27</v>
       </c>
       <c r="F43" s="1">
-        <f>INT((A43 * A43/4) + H7 + I7)</f>
+        <f t="shared" si="39"/>
         <v>36</v>
       </c>
       <c r="G43" s="1">
-        <f>INT((A43 * A43/4) + H7 + J7)</f>
+        <f t="shared" si="40"/>
         <v>39</v>
       </c>
       <c r="H43" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="41"/>
         <v>47</v>
       </c>
       <c r="I43" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="42"/>
         <v>51</v>
       </c>
       <c r="J43" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="43"/>
         <v>58</v>
       </c>
       <c r="K43" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="44"/>
         <v>63</v>
       </c>
     </row>
@@ -2967,43 +2967,43 @@
         <v>7</v>
       </c>
       <c r="B44" s="1">
-        <f>INT((A44 * A44/4) + B8 + C8)</f>
+        <f t="shared" si="35"/>
         <v>21</v>
       </c>
       <c r="C44" s="1">
-        <f>INT((A44 * A44)/4 + B8 + D8)</f>
+        <f t="shared" si="36"/>
         <v>22</v>
       </c>
       <c r="D44" s="1">
-        <f>INT((A44 * A44/4) + E8 + F8)</f>
+        <f t="shared" si="37"/>
         <v>31</v>
       </c>
       <c r="E44" s="1">
-        <f>INT((A44 * A44/4) + E8 + G8)</f>
+        <f t="shared" si="38"/>
         <v>33</v>
       </c>
       <c r="F44" s="1">
-        <f>INT((A44 * A44/4) + H8 + I8)</f>
+        <f t="shared" si="39"/>
         <v>44</v>
       </c>
       <c r="G44" s="1">
-        <f>INT((A44 * A44/4) + H8 + J8)</f>
+        <f t="shared" si="40"/>
         <v>47</v>
       </c>
       <c r="H44" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="41"/>
         <v>57</v>
       </c>
       <c r="I44" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="42"/>
         <v>61</v>
       </c>
       <c r="J44" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="43"/>
         <v>70</v>
       </c>
       <c r="K44" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="44"/>
         <v>75</v>
       </c>
     </row>
@@ -3012,43 +3012,43 @@
         <v>8</v>
       </c>
       <c r="B45" s="1">
-        <f>INT((A45 * A45/4) + B9 + C9)</f>
+        <f t="shared" si="35"/>
         <v>27</v>
       </c>
       <c r="C45" s="1">
-        <f>INT((A45 * A45)/4 + B9 + D9)</f>
+        <f t="shared" si="36"/>
         <v>28</v>
       </c>
       <c r="D45" s="1">
-        <f>INT((A45 * A45/4) + E9 + F9)</f>
+        <f t="shared" si="37"/>
         <v>38</v>
       </c>
       <c r="E45" s="1">
-        <f>INT((A45 * A45/4) + E9 + G9)</f>
+        <f t="shared" si="38"/>
         <v>40</v>
       </c>
       <c r="F45" s="1">
-        <f>INT((A45 * A45/4) + H9 + I9)</f>
+        <f t="shared" si="39"/>
         <v>53</v>
       </c>
       <c r="G45" s="1">
-        <f>INT((A45 * A45/4) + H9 + J9)</f>
+        <f t="shared" si="40"/>
         <v>56</v>
       </c>
       <c r="H45" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="41"/>
         <v>68</v>
       </c>
       <c r="I45" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="42"/>
         <v>72</v>
       </c>
       <c r="J45" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="43"/>
         <v>83</v>
       </c>
       <c r="K45" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="44"/>
         <v>88</v>
       </c>
     </row>
@@ -3057,43 +3057,43 @@
         <v>9</v>
       </c>
       <c r="B46" s="1">
-        <f>INT((A46 * A46/4) + B10 + C10)</f>
+        <f t="shared" si="35"/>
         <v>32</v>
       </c>
       <c r="C46" s="1">
-        <f>INT((A46 * A46)/4 + B10 + D10)</f>
+        <f t="shared" si="36"/>
         <v>33</v>
       </c>
       <c r="D46" s="1">
-        <f>INT((A46 * A46/4) + E10 + F10)</f>
+        <f t="shared" si="37"/>
         <v>45</v>
       </c>
       <c r="E46" s="1">
-        <f>INT((A46 * A46/4) + E10 + G10)</f>
+        <f t="shared" si="38"/>
         <v>47</v>
       </c>
       <c r="F46" s="1">
-        <f>INT((A46 * A46/4) + H10 + I10)</f>
+        <f t="shared" si="39"/>
         <v>62</v>
       </c>
       <c r="G46" s="1">
-        <f>INT((A46 * A46/4) + H10 + J10)</f>
+        <f t="shared" si="40"/>
         <v>65</v>
       </c>
       <c r="H46" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="41"/>
         <v>79</v>
       </c>
       <c r="I46" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="42"/>
         <v>83</v>
       </c>
       <c r="J46" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="43"/>
         <v>96</v>
       </c>
       <c r="K46" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="44"/>
         <v>101</v>
       </c>
     </row>
@@ -3102,43 +3102,43 @@
         <v>10</v>
       </c>
       <c r="B47" s="1">
-        <f>INT((A47 * A47/4) + B11 + C11)</f>
+        <f t="shared" si="35"/>
         <v>39</v>
       </c>
       <c r="C47" s="1">
-        <f>INT((A47 * A47)/4 + B11 + D11)</f>
+        <f t="shared" si="36"/>
         <v>40</v>
       </c>
       <c r="D47" s="1">
-        <f>INT((A47 * A47/4) + E11 + F11)</f>
+        <f t="shared" si="37"/>
         <v>53</v>
       </c>
       <c r="E47" s="1">
-        <f>INT((A47 * A47/4) + E11 + G11)</f>
+        <f t="shared" si="38"/>
         <v>55</v>
       </c>
       <c r="F47" s="1">
-        <f>INT((A47 * A47/4) + H11 + I11)</f>
+        <f t="shared" si="39"/>
         <v>72</v>
       </c>
       <c r="G47" s="1">
-        <f>INT((A47 * A47/4) + H11 + J11)</f>
+        <f t="shared" si="40"/>
         <v>75</v>
       </c>
       <c r="H47" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="41"/>
         <v>91</v>
       </c>
       <c r="I47" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="42"/>
         <v>95</v>
       </c>
       <c r="J47" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="43"/>
         <v>110</v>
       </c>
       <c r="K47" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="44"/>
         <v>115</v>
       </c>
     </row>
